--- a/Excel/Práctica/3. Listas en Excel/inmovilizar paneles.xlsx
+++ b/Excel/Práctica/3. Listas en Excel/inmovilizar paneles.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="285">
   <si>
     <t>ID</t>
   </si>
@@ -935,6 +935,15 @@
   </si>
   <si>
     <t>subtotal =</t>
+  </si>
+  <si>
+    <t>Podemos poner en marcha esta función. Aquí podrá elegir, de paso, sobre qué columna va a eliminar sus elementos registrados.</t>
+  </si>
+  <si>
+    <t>Nosotros también podemos suprimir los elementos duplicados dentro de una lista, de forma automatica,</t>
+  </si>
+  <si>
+    <t>sin necesidad de revisar uno a uno todos los registros existentes dentro de la lista en cuestión. Con "Quitar duplicados", en Datos,</t>
   </si>
 </sst>
 </file>
@@ -1442,10 +1451,10 @@
   <dimension ref="A1:R203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F205" sqref="F205"/>
+      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1584,7 +1593,7 @@
     </row>
     <row r="5" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>59</v>
@@ -1604,7 +1613,7 @@
     </row>
     <row r="6" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>60</v>
@@ -1637,7 +1646,7 @@
     </row>
     <row r="7" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>61</v>
@@ -1670,7 +1679,7 @@
     </row>
     <row r="8" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>62</v>
@@ -1696,7 +1705,7 @@
     </row>
     <row r="9" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>63</v>
@@ -1729,7 +1738,7 @@
     </row>
     <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>63</v>
@@ -1762,7 +1771,7 @@
     </row>
     <row r="11" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>64</v>
@@ -1782,7 +1791,7 @@
     </row>
     <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>65</v>
@@ -1802,7 +1811,7 @@
     </row>
     <row r="13" spans="1:18" s="4" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>66</v>
@@ -1835,7 +1844,7 @@
     </row>
     <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>67</v>
@@ -1866,7 +1875,7 @@
     </row>
     <row r="15" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>68</v>
@@ -1897,7 +1906,7 @@
     </row>
     <row r="16" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>69</v>
@@ -1915,9 +1924,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>70</v>
@@ -1934,10 +1943,23 @@
       <c r="F17" s="4">
         <v>104</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+    </row>
+    <row r="18" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>71</v>
@@ -1954,10 +1976,23 @@
       <c r="F18" s="4">
         <v>74</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+    </row>
+    <row r="19" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>72</v>
@@ -1974,10 +2009,23 @@
       <c r="F19" s="4">
         <v>107</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+    </row>
+    <row r="20" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>73</v>
@@ -1995,9 +2043,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>74</v>
@@ -2012,9 +2060,9 @@
         <v>32772</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>75</v>
@@ -2032,9 +2080,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>76</v>
@@ -2052,9 +2100,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>77</v>
@@ -2072,9 +2120,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>78</v>
@@ -2092,9 +2140,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>79</v>
@@ -2112,9 +2160,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>80</v>
@@ -2132,9 +2180,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>81</v>
@@ -2152,9 +2200,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>82</v>
@@ -2172,9 +2220,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>83</v>
@@ -2192,9 +2240,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>84</v>
@@ -2212,9 +2260,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>85</v>
@@ -2234,7 +2282,7 @@
     </row>
     <row r="33" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>86</v>
@@ -2254,7 +2302,7 @@
     </row>
     <row r="34" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>87</v>
@@ -2274,7 +2322,7 @@
     </row>
     <row r="35" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>88</v>
@@ -2294,7 +2342,7 @@
     </row>
     <row r="36" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>89</v>
@@ -2314,7 +2362,7 @@
     </row>
     <row r="37" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>90</v>
@@ -2334,7 +2382,7 @@
     </row>
     <row r="38" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>91</v>
@@ -2354,7 +2402,7 @@
     </row>
     <row r="39" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>92</v>
@@ -2374,7 +2422,7 @@
     </row>
     <row r="40" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>93</v>
@@ -2394,7 +2442,7 @@
     </row>
     <row r="41" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>54</v>
@@ -2414,7 +2462,7 @@
     </row>
     <row r="42" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>94</v>
@@ -2434,7 +2482,7 @@
     </row>
     <row r="43" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>95</v>
@@ -2454,7 +2502,7 @@
     </row>
     <row r="44" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>96</v>
@@ -2474,7 +2522,7 @@
     </row>
     <row r="45" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>53</v>
@@ -2494,7 +2542,7 @@
     </row>
     <row r="46" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>97</v>
@@ -2514,7 +2562,7 @@
     </row>
     <row r="47" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>98</v>
@@ -2534,7 +2582,7 @@
     </row>
     <row r="48" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>99</v>
@@ -2554,7 +2602,7 @@
     </row>
     <row r="49" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>100</v>
@@ -2574,7 +2622,7 @@
     </row>
     <row r="50" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>101</v>
@@ -2594,7 +2642,7 @@
     </row>
     <row r="51" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>102</v>
@@ -2614,7 +2662,7 @@
     </row>
     <row r="52" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>103</v>
@@ -2634,7 +2682,7 @@
     </row>
     <row r="53" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>104</v>
@@ -2654,7 +2702,7 @@
     </row>
     <row r="54" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>105</v>
@@ -2674,7 +2722,7 @@
     </row>
     <row r="55" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>106</v>
@@ -2694,7 +2742,7 @@
     </row>
     <row r="56" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>107</v>
@@ -2714,7 +2762,7 @@
     </row>
     <row r="57" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>108</v>
@@ -2734,7 +2782,7 @@
     </row>
     <row r="58" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>109</v>
@@ -2754,7 +2802,7 @@
     </row>
     <row r="59" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>110</v>
@@ -2774,7 +2822,7 @@
     </row>
     <row r="60" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>111</v>
@@ -2794,7 +2842,7 @@
     </row>
     <row r="61" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>112</v>
@@ -2814,7 +2862,7 @@
     </row>
     <row r="62" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>113</v>
@@ -2834,7 +2882,7 @@
     </row>
     <row r="63" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>114</v>
@@ -2854,7 +2902,7 @@
     </row>
     <row r="64" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>115</v>
@@ -2874,7 +2922,7 @@
     </row>
     <row r="65" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>116</v>
@@ -2894,7 +2942,7 @@
     </row>
     <row r="66" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>117</v>
@@ -2914,7 +2962,7 @@
     </row>
     <row r="67" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>118</v>
@@ -2931,7 +2979,7 @@
     </row>
     <row r="68" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>119</v>
@@ -2951,7 +2999,7 @@
     </row>
     <row r="69" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>14</v>
@@ -2971,7 +3019,7 @@
     </row>
     <row r="70" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>84</v>
@@ -2991,7 +3039,7 @@
     </row>
     <row r="71" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>120</v>
@@ -3011,7 +3059,7 @@
     </row>
     <row r="72" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>121</v>
@@ -3031,7 +3079,7 @@
     </row>
     <row r="73" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>121</v>
@@ -3051,7 +3099,7 @@
     </row>
     <row r="74" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>122</v>
@@ -3071,7 +3119,7 @@
     </row>
     <row r="75" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>123</v>
@@ -3091,7 +3139,7 @@
     </row>
     <row r="76" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>124</v>
@@ -3111,7 +3159,7 @@
     </row>
     <row r="77" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>125</v>
@@ -3131,7 +3179,7 @@
     </row>
     <row r="78" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>126</v>
@@ -3151,7 +3199,7 @@
     </row>
     <row r="79" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>127</v>
@@ -3171,7 +3219,7 @@
     </row>
     <row r="80" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>128</v>
@@ -3191,7 +3239,7 @@
     </row>
     <row r="81" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>129</v>
@@ -3211,7 +3259,7 @@
     </row>
     <row r="82" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>130</v>
@@ -3231,7 +3279,7 @@
     </row>
     <row r="83" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>131</v>
@@ -3251,7 +3299,7 @@
     </row>
     <row r="84" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>132</v>
@@ -3271,7 +3319,7 @@
     </row>
     <row r="85" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>133</v>
@@ -3291,7 +3339,7 @@
     </row>
     <row r="86" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>134</v>
@@ -3311,7 +3359,7 @@
     </row>
     <row r="87" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>135</v>
@@ -3328,7 +3376,7 @@
     </row>
     <row r="88" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>136</v>
@@ -3348,7 +3396,7 @@
     </row>
     <row r="89" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>137</v>
@@ -3368,7 +3416,7 @@
     </row>
     <row r="90" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>138</v>
@@ -3388,7 +3436,7 @@
     </row>
     <row r="91" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>139</v>
@@ -3408,7 +3456,7 @@
     </row>
     <row r="92" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>140</v>
@@ -3428,7 +3476,7 @@
     </row>
     <row r="93" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>141</v>
@@ -3448,7 +3496,7 @@
     </row>
     <row r="94" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>142</v>
@@ -3468,7 +3516,7 @@
     </row>
     <row r="95" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>143</v>
@@ -3488,7 +3536,7 @@
     </row>
     <row r="96" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>144</v>
@@ -3508,7 +3556,7 @@
     </row>
     <row r="97" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>145</v>
@@ -3528,7 +3576,7 @@
     </row>
     <row r="98" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>145</v>
@@ -3548,7 +3596,7 @@
     </row>
     <row r="99" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>146</v>
@@ -3568,7 +3616,7 @@
     </row>
     <row r="100" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>147</v>
@@ -3588,7 +3636,7 @@
     </row>
     <row r="101" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>148</v>
@@ -3608,7 +3656,7 @@
     </row>
     <row r="102" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>149</v>
@@ -3628,7 +3676,7 @@
     </row>
     <row r="103" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>150</v>
@@ -3648,7 +3696,7 @@
     </row>
     <row r="104" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>151</v>
@@ -3668,7 +3716,7 @@
     </row>
     <row r="105" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>152</v>
@@ -3688,7 +3736,7 @@
     </row>
     <row r="106" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>153</v>
@@ -3708,7 +3756,7 @@
     </row>
     <row r="107" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>154</v>
@@ -3728,7 +3776,7 @@
     </row>
     <row r="108" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>155</v>
@@ -3748,7 +3796,7 @@
     </row>
     <row r="109" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>156</v>
@@ -3768,7 +3816,7 @@
     </row>
     <row r="110" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>157</v>
@@ -3788,7 +3836,7 @@
     </row>
     <row r="111" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>158</v>
@@ -3808,7 +3856,7 @@
     </row>
     <row r="112" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>159</v>
@@ -3828,7 +3876,7 @@
     </row>
     <row r="113" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>160</v>
@@ -3848,7 +3896,7 @@
     </row>
     <row r="114" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>161</v>
@@ -3868,7 +3916,7 @@
     </row>
     <row r="115" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>162</v>
@@ -3888,7 +3936,7 @@
     </row>
     <row r="116" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>163</v>
@@ -3908,7 +3956,7 @@
     </row>
     <row r="117" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>164</v>
@@ -3928,7 +3976,7 @@
     </row>
     <row r="118" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>165</v>
@@ -3948,7 +3996,7 @@
     </row>
     <row r="119" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>166</v>
@@ -3968,7 +4016,7 @@
     </row>
     <row r="120" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>167</v>
@@ -3988,7 +4036,7 @@
     </row>
     <row r="121" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>168</v>
@@ -4008,7 +4056,7 @@
     </row>
     <row r="122" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>169</v>
@@ -4028,7 +4076,7 @@
     </row>
     <row r="123" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>169</v>
@@ -4048,7 +4096,7 @@
     </row>
     <row r="124" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>170</v>
@@ -4068,7 +4116,7 @@
     </row>
     <row r="125" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>171</v>
@@ -4088,7 +4136,7 @@
     </row>
     <row r="126" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>172</v>
@@ -4108,7 +4156,7 @@
     </row>
     <row r="127" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>173</v>
@@ -4128,7 +4176,7 @@
     </row>
     <row r="128" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>174</v>
@@ -4148,7 +4196,7 @@
     </row>
     <row r="129" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>175</v>
@@ -4168,7 +4216,7 @@
     </row>
     <row r="130" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>176</v>
@@ -4188,7 +4236,7 @@
     </row>
     <row r="131" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>177</v>
@@ -4208,7 +4256,7 @@
     </row>
     <row r="132" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>178</v>
@@ -4228,7 +4276,7 @@
     </row>
     <row r="133" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>179</v>
@@ -4248,7 +4296,7 @@
     </row>
     <row r="134" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>180</v>
@@ -4268,7 +4316,7 @@
     </row>
     <row r="135" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>181</v>
@@ -4288,7 +4336,7 @@
     </row>
     <row r="136" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>182</v>
@@ -4308,7 +4356,7 @@
     </row>
     <row r="137" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>183</v>
@@ -4328,7 +4376,7 @@
     </row>
     <row r="138" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>184</v>
@@ -4348,7 +4396,7 @@
     </row>
     <row r="139" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>185</v>
@@ -4368,7 +4416,7 @@
     </row>
     <row r="140" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>186</v>
@@ -4388,7 +4436,7 @@
     </row>
     <row r="141" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>187</v>
@@ -4408,7 +4456,7 @@
     </row>
     <row r="142" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>188</v>
@@ -4428,7 +4476,7 @@
     </row>
     <row r="143" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>189</v>
@@ -4448,7 +4496,7 @@
     </row>
     <row r="144" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>190</v>
@@ -4468,7 +4516,7 @@
     </row>
     <row r="145" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>191</v>
@@ -4488,7 +4536,7 @@
     </row>
     <row r="146" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>192</v>
@@ -4508,7 +4556,7 @@
     </row>
     <row r="147" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>193</v>
@@ -4528,7 +4576,7 @@
     </row>
     <row r="148" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>194</v>
@@ -4548,7 +4596,7 @@
     </row>
     <row r="149" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>195</v>
@@ -4568,7 +4616,7 @@
     </row>
     <row r="150" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>196</v>
@@ -4588,7 +4636,7 @@
     </row>
     <row r="151" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>197</v>
@@ -4608,7 +4656,7 @@
     </row>
     <row r="152" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>198</v>
@@ -4628,7 +4676,7 @@
     </row>
     <row r="153" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>199</v>
@@ -4648,7 +4696,7 @@
     </row>
     <row r="154" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>200</v>
@@ -4668,7 +4716,7 @@
     </row>
     <row r="155" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>201</v>
@@ -4688,7 +4736,7 @@
     </row>
     <row r="156" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>202</v>
@@ -4708,7 +4756,7 @@
     </row>
     <row r="157" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>203</v>
@@ -4728,7 +4776,7 @@
     </row>
     <row r="158" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>204</v>
@@ -4748,7 +4796,7 @@
     </row>
     <row r="159" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>205</v>
@@ -4768,7 +4816,7 @@
     </row>
     <row r="160" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>206</v>
@@ -4788,7 +4836,7 @@
     </row>
     <row r="161" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>207</v>
@@ -4808,7 +4856,7 @@
     </row>
     <row r="162" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>208</v>
@@ -4828,7 +4876,7 @@
     </row>
     <row r="163" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>209</v>
@@ -4848,7 +4896,7 @@
     </row>
     <row r="164" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>210</v>
@@ -4868,7 +4916,7 @@
     </row>
     <row r="165" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>211</v>
@@ -4888,7 +4936,7 @@
     </row>
     <row r="166" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>212</v>
@@ -4908,7 +4956,7 @@
     </row>
     <row r="167" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>213</v>
@@ -4928,7 +4976,7 @@
     </row>
     <row r="168" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>214</v>
@@ -4948,7 +4996,7 @@
     </row>
     <row r="169" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>215</v>
@@ -4968,7 +5016,7 @@
     </row>
     <row r="170" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>215</v>
@@ -4988,7 +5036,7 @@
     </row>
     <row r="171" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>216</v>
@@ -5008,7 +5056,7 @@
     </row>
     <row r="172" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>217</v>
@@ -5028,7 +5076,7 @@
     </row>
     <row r="173" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>218</v>
@@ -5048,7 +5096,7 @@
     </row>
     <row r="174" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>219</v>
@@ -5068,7 +5116,7 @@
     </row>
     <row r="175" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>220</v>
@@ -5088,7 +5136,7 @@
     </row>
     <row r="176" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>221</v>
@@ -5108,7 +5156,7 @@
     </row>
     <row r="177" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>222</v>
@@ -5128,7 +5176,7 @@
     </row>
     <row r="178" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>223</v>
@@ -5148,7 +5196,7 @@
     </row>
     <row r="179" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>224</v>
@@ -5168,7 +5216,7 @@
     </row>
     <row r="180" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>225</v>
@@ -5188,7 +5236,7 @@
     </row>
     <row r="181" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>226</v>
@@ -5208,7 +5256,7 @@
     </row>
     <row r="182" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>227</v>
@@ -5228,7 +5276,7 @@
     </row>
     <row r="183" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>228</v>
@@ -5248,7 +5296,7 @@
     </row>
     <row r="184" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>229</v>
@@ -5268,7 +5316,7 @@
     </row>
     <row r="185" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>230</v>
@@ -5288,7 +5336,7 @@
     </row>
     <row r="186" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>231</v>
@@ -5308,7 +5356,7 @@
     </row>
     <row r="187" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>232</v>
@@ -5328,7 +5376,7 @@
     </row>
     <row r="188" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>233</v>
@@ -5348,7 +5396,7 @@
     </row>
     <row r="189" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>234</v>
@@ -5368,7 +5416,7 @@
     </row>
     <row r="190" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>235</v>
@@ -5388,7 +5436,7 @@
     </row>
     <row r="191" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>236</v>
@@ -5408,7 +5456,7 @@
     </row>
     <row r="192" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>237</v>
@@ -5428,7 +5476,7 @@
     </row>
     <row r="193" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>238</v>
@@ -5447,9 +5495,7 @@
       </c>
     </row>
     <row r="194" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="4">
-        <v>193</v>
-      </c>
+      <c r="A194"/>
       <c r="B194" s="4" t="s">
         <v>239</v>
       </c>
@@ -5467,9 +5513,7 @@
       </c>
     </row>
     <row r="195" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="4">
-        <v>193</v>
-      </c>
+      <c r="A195"/>
       <c r="B195" s="4" t="s">
         <v>239</v>
       </c>
@@ -5487,9 +5531,7 @@
       </c>
     </row>
     <row r="196" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="4">
-        <v>195</v>
-      </c>
+      <c r="A196"/>
       <c r="B196" s="4" t="s">
         <v>240</v>
       </c>
@@ -5507,9 +5549,7 @@
       </c>
     </row>
     <row r="197" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="4">
-        <v>196</v>
-      </c>
+      <c r="A197"/>
       <c r="B197" s="4" t="s">
         <v>241</v>
       </c>
@@ -5527,9 +5567,7 @@
       </c>
     </row>
     <row r="198" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="4">
-        <v>197</v>
-      </c>
+      <c r="A198"/>
       <c r="B198" s="4" t="s">
         <v>242</v>
       </c>
@@ -5547,9 +5585,7 @@
       </c>
     </row>
     <row r="199" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="4">
-        <v>198</v>
-      </c>
+      <c r="A199"/>
       <c r="B199" s="4" t="s">
         <v>243</v>
       </c>
@@ -5567,9 +5603,7 @@
       </c>
     </row>
     <row r="200" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="4">
-        <v>198</v>
-      </c>
+      <c r="A200"/>
       <c r="B200" s="4" t="s">
         <v>243</v>
       </c>
@@ -5587,9 +5621,7 @@
       </c>
     </row>
     <row r="201" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="4">
-        <v>200</v>
-      </c>
+      <c r="A201"/>
       <c r="B201" s="4" t="s">
         <v>244</v>
       </c>
@@ -5631,10 +5663,13 @@
   <sortState ref="A2:F201">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
-  <mergeCells count="8">
+  <mergeCells count="11">
+    <mergeCell ref="H19:R19"/>
     <mergeCell ref="H9:R9"/>
     <mergeCell ref="H10:R10"/>
     <mergeCell ref="H13:R15"/>
+    <mergeCell ref="H17:R17"/>
+    <mergeCell ref="H18:R18"/>
     <mergeCell ref="H6:R6"/>
     <mergeCell ref="H7:R7"/>
     <mergeCell ref="H2:R2"/>
